--- a/NB-DT-Codes/golf_dataset-Exercise-2.xlsx
+++ b/NB-DT-Codes/golf_dataset-Exercise-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED03F6-2E08-41D2-A928-271579100C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF6E5EB-FD7D-49D1-BC8B-F35D4CCB702B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3840" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -488,13 +488,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,12 +513,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10721,28 +10721,28 @@
       <selection activeCell="A19" sqref="A19:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.1328125" style="1"/>
-    <col min="9" max="9" width="10.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.1328125" style="1"/>
-    <col min="16" max="16" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1328125" style="1"/>
-    <col min="18" max="18" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -11562,7 +11562,7 @@
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I24" s="5" t="s">
         <v>5</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I25" s="5" t="s">
         <v>5</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I26" s="5" t="s">
         <v>6</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -11838,7 +11838,7 @@
       <c r="W32" s="25"/>
       <c r="X32" s="25"/>
     </row>
-    <row r="33" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I33" s="5" t="s">
         <v>7</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I34" s="5" t="s">
         <v>5</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="35" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I35" s="5" t="s">
         <v>6</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="36" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I36" s="5" t="s">
         <v>6</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="37" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I37" s="5" t="s">
         <v>7</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="9:29" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:29" x14ac:dyDescent="0.25">
       <c r="Q38" s="22" t="s">
         <v>64</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M39" s="3" t="s">
         <v>1</v>
       </c>
@@ -12005,12 +12005,12 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="40" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M40" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I41" s="3" t="s">
         <v>0</v>
       </c>
@@ -12026,7 +12026,7 @@
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I42" s="5" t="s">
         <v>5</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I43" s="5" t="s">
         <v>5</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>0.12640000000000001</v>
       </c>
     </row>
-    <row r="44" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I44" s="5" t="s">
         <v>6</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="45" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I45" s="5" t="s">
         <v>7</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>8.9492187500000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I46" s="5" t="s">
         <v>7</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>4.9382716049382713E-2</v>
       </c>
     </row>
-    <row r="47" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I47" s="5" t="s">
         <v>7</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>9.8765432098765427E-2</v>
       </c>
     </row>
-    <row r="48" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I48" s="5" t="s">
         <v>6</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="49" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I49" s="5" t="s">
         <v>5</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="50" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I50" s="5" t="s">
         <v>5</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="51" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I51" s="5" t="s">
         <v>7</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="52" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I52" s="5" t="s">
         <v>5</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0.64285714285714279</v>
       </c>
     </row>
-    <row r="53" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I53" s="5" t="s">
         <v>6</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I54" s="5" t="s">
         <v>6</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I55" s="5" t="s">
         <v>7</v>
       </c>
@@ -12592,24 +12592,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M57" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M58" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="59" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M59" s="24" t="s">
         <v>57</v>
       </c>
       <c r="N59" s="24"/>
       <c r="O59" s="24"/>
     </row>
-    <row r="60" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="60" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M60" s="20" t="s">
         <v>0</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="61" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M61" s="18" t="s">
         <v>6</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="62" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M62" s="18" t="s">
         <v>60</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="63" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M63" s="18" t="s">
         <v>5</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="64" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M64" s="19" t="s">
         <v>61</v>
       </c>
@@ -12696,64 +12696,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1DBB2D-BDC2-472E-8E2B-0DA38CFE3E20}">
   <dimension ref="B1:Y138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI99" sqref="AI99"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="1"/>
-    <col min="9" max="9" width="2.3984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="1"/>
-    <col min="11" max="11" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.86328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" style="1" customWidth="1"/>
-    <col min="16" max="18" width="10.86328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.73046875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="2.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1328125" style="1"/>
-    <col min="24" max="24" width="8.1328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.86328125" style="11" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="8.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="2:25" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="Q8" s="27" t="s">
+    <row r="6" spans="2:25" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -12829,7 +12829,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -12868,12 +12868,12 @@
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -12951,9 +12951,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -12981,9 +12981,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="29"/>
-    </row>
-    <row r="16" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -13042,12 +13042,12 @@
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="27"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R18" s="26"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -13125,9 +13125,9 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="30"/>
-    </row>
-    <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T20" s="32"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -13155,9 +13155,9 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="31"/>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T21" s="33"/>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
@@ -13185,9 +13185,9 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="32"/>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T22" s="34"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
@@ -13207,13 +13207,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q25" s="27" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R25" s="27"/>
-    </row>
-    <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R25" s="26"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K26" s="3" t="s">
         <v>1</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
@@ -13261,9 +13261,9 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="28"/>
-    </row>
-    <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
@@ -13279,9 +13279,9 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="33"/>
-    </row>
-    <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T28" s="30"/>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
@@ -13294,15 +13294,15 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="29"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q32" s="27" t="s">
+      <c r="T29" s="31"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R32" s="27"/>
-    </row>
-    <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R32" s="26"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>15</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -13380,9 +13380,9 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="28"/>
-    </row>
-    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T34" s="29"/>
+    </row>
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="8"/>
@@ -13392,12 +13392,12 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="29"/>
-    </row>
-    <row r="38" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="T35" s="31"/>
+    </row>
+    <row r="38" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T38" s="12"/>
     </row>
-    <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -13416,12 +13416,12 @@
       <c r="G40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q40" s="27" t="s">
+      <c r="Q40" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R40" s="27"/>
-    </row>
-    <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R40" s="26"/>
+    </row>
+    <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -13459,7 +13459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -13476,7 +13476,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -13484,7 +13484,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -13492,7 +13492,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -13500,7 +13500,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -13508,7 +13508,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -13516,7 +13516,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -13524,7 +13524,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -13532,7 +13532,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -13540,7 +13540,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -13548,7 +13548,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -13556,7 +13556,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -13564,7 +13564,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -13572,7 +13572,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -13580,7 +13580,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -13588,7 +13588,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -13596,7 +13596,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -13604,7 +13604,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -13612,10 +13612,10 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="62" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T62" s="12"/>
     </row>
-    <row r="64" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>15</v>
       </c>
@@ -13634,12 +13634,12 @@
       <c r="G64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q64" s="27" t="s">
+      <c r="Q64" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R64" s="27"/>
-    </row>
-    <row r="65" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R64" s="26"/>
+    </row>
+    <row r="65" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -13677,7 +13677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -13693,9 +13693,9 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="6"/>
-      <c r="T66" s="28"/>
-    </row>
-    <row r="67" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T66" s="29"/>
+    </row>
+    <row r="67" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -13711,9 +13711,9 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="6"/>
-      <c r="T67" s="33"/>
-    </row>
-    <row r="68" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T67" s="30"/>
+    </row>
+    <row r="68" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -13729,9 +13729,9 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="6"/>
-      <c r="T68" s="29"/>
-    </row>
-    <row r="69" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T68" s="31"/>
+    </row>
+    <row r="69" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -13739,13 +13739,13 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q71" s="27" t="s">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q71" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R71" s="27"/>
-    </row>
-    <row r="72" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R71" s="26"/>
+    </row>
+    <row r="72" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K72" s="3" t="s">
         <v>2</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -13787,9 +13787,9 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="26"/>
-    </row>
-    <row r="74" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T73" s="27"/>
+    </row>
+    <row r="74" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -13799,16 +13799,16 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="26"/>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q77" s="27" t="s">
+      <c r="T74" s="27"/>
+    </row>
+    <row r="75" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q77" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R77" s="27"/>
-    </row>
-    <row r="78" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R77" s="26"/>
+    </row>
+    <row r="78" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K78" s="3" t="s">
         <v>41</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -13850,9 +13850,9 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="34"/>
-    </row>
-    <row r="80" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T79" s="28"/>
+    </row>
+    <row r="80" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -13862,12 +13862,12 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="34"/>
-    </row>
-    <row r="84" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="T80" s="28"/>
+    </row>
+    <row r="84" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T84" s="12"/>
     </row>
-    <row r="86" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>15</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -13895,7 +13895,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -13903,7 +13903,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -13911,7 +13911,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="93" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>15</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -13939,7 +13939,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -13947,8 +13947,8 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="119" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V121" s="3" t="s">
         <v>45</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
         <v>15</v>
       </c>
@@ -13976,12 +13976,12 @@
       <c r="G122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q122" s="27" t="s">
+      <c r="Q122" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R122" s="27"/>
-    </row>
-    <row r="123" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R122" s="26"/>
+    </row>
+    <row r="123" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -14019,7 +14019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -14035,9 +14035,9 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
       <c r="S124" s="6"/>
-      <c r="T124" s="28"/>
-    </row>
-    <row r="125" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T124" s="29"/>
+    </row>
+    <row r="125" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -14053,9 +14053,9 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
       <c r="S125" s="6"/>
-      <c r="T125" s="33"/>
-    </row>
-    <row r="126" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T125" s="30"/>
+    </row>
+    <row r="126" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -14071,9 +14071,9 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
       <c r="S126" s="6"/>
-      <c r="T126" s="29"/>
-    </row>
-    <row r="127" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T126" s="31"/>
+    </row>
+    <row r="127" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -14081,13 +14081,13 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="129" spans="11:20" x14ac:dyDescent="0.45">
-      <c r="Q129" s="27" t="s">
+    <row r="129" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q129" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R129" s="27"/>
-    </row>
-    <row r="130" spans="11:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R129" s="26"/>
+    </row>
+    <row r="130" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K130" s="3" t="s">
         <v>2</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="11:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -14129,9 +14129,9 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
       <c r="S131" s="6"/>
-      <c r="T131" s="34"/>
-    </row>
-    <row r="132" spans="11:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T131" s="28"/>
+    </row>
+    <row r="132" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -14141,15 +14141,15 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
       <c r="S132" s="6"/>
-      <c r="T132" s="34"/>
-    </row>
-    <row r="135" spans="11:20" x14ac:dyDescent="0.45">
-      <c r="Q135" s="27" t="s">
+      <c r="T132" s="28"/>
+    </row>
+    <row r="135" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q135" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R135" s="27"/>
-    </row>
-    <row r="136" spans="11:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R135" s="26"/>
+    </row>
+    <row r="136" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K136" s="3" t="s">
         <v>41</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="11:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="137" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
@@ -14191,9 +14191,9 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
       <c r="S137" s="6"/>
-      <c r="T137" s="26"/>
-    </row>
-    <row r="138" spans="11:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T137" s="27"/>
+    </row>
+    <row r="138" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
@@ -14203,18 +14203,10 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
       <c r="S138" s="6"/>
-      <c r="T138" s="26"/>
+      <c r="T138" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="T137:T138"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="T124:T126"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="T131:T132"/>
     <mergeCell ref="T73:T74"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q32:R32"/>
@@ -14229,6 +14221,14 @@
     <mergeCell ref="Q64:R64"/>
     <mergeCell ref="T66:T68"/>
     <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="T137:T138"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="T124:T126"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="T131:T132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14243,59 +14243,59 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1"/>
-    <col min="8" max="8" width="2.3984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="1"/>
-    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.86328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" style="1" customWidth="1"/>
-    <col min="15" max="17" width="10.86328125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.73046875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="2.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1328125" style="1"/>
-    <col min="23" max="23" width="8.1328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.86328125" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="P8" s="27" t="s">
+    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>0.94028595867063092</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -14431,12 +14431,12 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -14539,12 +14539,12 @@
         <f>1-(P14^2)-(Q14^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="29">
         <f>SUMPRODUCT(R14:R15,M14:M15)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -14597,9 +14597,9 @@
         <f>1-(P15^2)-(Q15^2)</f>
         <v>0.375</v>
       </c>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S15" s="31"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -14658,12 +14658,12 @@
       <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -14766,12 +14766,12 @@
         <f>1-(P20^2)-(Q20^2)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="32">
         <f>SUMPRODUCT(R20:R22,M20:M22)</f>
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -14824,12 +14824,12 @@
         <f>1-(P21^2)-(Q21^2)</f>
         <v>0.48</v>
       </c>
-      <c r="S21" s="31"/>
+      <c r="S21" s="33"/>
       <c r="U21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -14882,12 +14882,12 @@
         <f t="shared" ref="R22" si="1">1-(P22^2)-(Q22^2)</f>
         <v>0.48</v>
       </c>
-      <c r="S22" s="32"/>
+      <c r="S22" s="34"/>
       <c r="U22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -14907,13 +14907,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P25" s="27" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J26" s="3" t="s">
         <v>1</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
@@ -14986,12 +14986,12 @@
         <f>1-(P27^2)-(Q27^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="29">
         <f>SUMPRODUCT(R27:R29,M27:M29)</f>
         <v>0.44047619047619047</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
@@ -15032,9 +15032,9 @@
         <f t="shared" ref="R28:R29" si="3">1-(P28^2)-(Q28^2)</f>
         <v>0.44444444444444448</v>
       </c>
-      <c r="S28" s="33"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S28" s="30"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -15072,15 +15072,15 @@
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="S29" s="29"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P32" s="27" t="s">
+      <c r="S29" s="31"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q32" s="27"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q32" s="26"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J33" s="3" t="s">
         <v>2</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J34" s="5" t="s">
         <v>11</v>
       </c>
@@ -15147,12 +15147,12 @@
         <f t="shared" ref="R34:R35" si="4">1-(P34^2)-(Q34^2)</f>
         <v>0.48</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="29">
         <f>SUMPRODUCT(R34:R35,M34:M35)</f>
         <v>0.3936507936507937</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J35" s="5" t="s">
         <v>14</v>
       </c>
@@ -15187,12 +15187,12 @@
         <f t="shared" si="4"/>
         <v>0.34567901234567899</v>
       </c>
-      <c r="S35" s="29"/>
-    </row>
-    <row r="38" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="S35" s="31"/>
+    </row>
+    <row r="38" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S38" s="12"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -15211,12 +15211,12 @@
       <c r="F40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P40" s="27" t="s">
+      <c r="P40" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q40" s="27"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q40" s="26"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>18</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>27</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -15368,7 +15368,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -15376,7 +15376,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -15384,7 +15384,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -15392,7 +15392,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -15400,7 +15400,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -15408,7 +15408,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -15416,7 +15416,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -15424,7 +15424,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -15432,7 +15432,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -15440,7 +15440,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -15448,7 +15448,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -15456,7 +15456,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -15464,7 +15464,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -15472,7 +15472,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -15480,10 +15480,10 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="62" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S62" s="12"/>
     </row>
-    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>15</v>
       </c>
@@ -15502,12 +15502,12 @@
       <c r="F64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P64" s="27" t="s">
+      <c r="P64" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q64" s="27"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q64" s="26"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>16</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>17</v>
       </c>
@@ -15610,12 +15610,12 @@
         <f>1-(P66^2)-(Q66^2)</f>
         <v>0</v>
       </c>
-      <c r="S66" s="28">
+      <c r="S66" s="29">
         <f>SUMPRODUCT(R66:R68,M66:M68)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>23</v>
       </c>
@@ -15668,9 +15668,9 @@
         <f t="shared" ref="R67:R68" si="6">1-(P67^2)-(Q67^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S67" s="33"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S67" s="30"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>24</v>
       </c>
@@ -15723,9 +15723,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S68" s="29"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S68" s="31"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>26</v>
       </c>
@@ -15745,13 +15745,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P71" s="27" t="s">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P71" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q71" s="27"/>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q71" s="26"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J72" s="3" t="s">
         <v>2</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J73" s="5" t="s">
         <v>11</v>
       </c>
@@ -15818,7 +15818,7 @@
         <f t="shared" ref="R73:R74" si="7">1-(P73^2)-(Q73^2)</f>
         <v>0</v>
       </c>
-      <c r="S73" s="26">
+      <c r="S73" s="27">
         <f>SUMPRODUCT(R73:R74,M73:M74)</f>
         <v>0</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J74" s="5" t="s">
         <v>14</v>
       </c>
@@ -15861,19 +15861,19 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S74" s="26"/>
+      <c r="S74" s="27"/>
       <c r="U74" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P77" s="27" t="s">
+    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P77" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q77" s="27"/>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q77" s="26"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J78" s="3" t="s">
         <v>41</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J79" s="5" t="b">
         <v>1</v>
       </c>
@@ -15940,12 +15940,12 @@
         <f t="shared" ref="R79:R80" si="9">1-(P79^2)-(Q79^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S79" s="34">
+      <c r="S79" s="28">
         <f>SUMPRODUCT(R79:R80,M79:M80)</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J80" s="5" t="b">
         <v>0</v>
       </c>
@@ -15980,12 +15980,12 @@
         <f t="shared" si="9"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="S80" s="34"/>
-    </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="S80" s="28"/>
+    </row>
+    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S84" s="12"/>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>15</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>16</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>17</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>23</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>15</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>24</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>26</v>
       </c>
@@ -16125,12 +16125,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U121" s="7"/>
       <c r="V121" s="7"/>
     </row>
-    <row r="122" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>15</v>
       </c>
@@ -16149,12 +16149,12 @@
       <c r="F122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P122" s="27" t="s">
+      <c r="P122" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q122" s="27"/>
-    </row>
-    <row r="123" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q122" s="26"/>
+    </row>
+    <row r="123" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>19</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>20</v>
       </c>
@@ -16255,12 +16255,12 @@
         <f t="shared" ref="R124:R126" si="11">1-(P124^2)-(Q124^2)</f>
         <v>1</v>
       </c>
-      <c r="S124" s="28">
+      <c r="S124" s="29">
         <f>SUMPRODUCT(R124:R126,M124:M126)</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>21</v>
       </c>
@@ -16313,9 +16313,9 @@
         <f t="shared" si="11"/>
         <v>0.44444444444444448</v>
       </c>
-      <c r="S125" s="33"/>
-    </row>
-    <row r="126" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S125" s="30"/>
+    </row>
+    <row r="126" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>25</v>
       </c>
@@ -16368,9 +16368,9 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="S126" s="29"/>
-    </row>
-    <row r="127" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S126" s="31"/>
+    </row>
+    <row r="127" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>28</v>
       </c>
@@ -16390,13 +16390,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="10:19" x14ac:dyDescent="0.45">
-      <c r="P129" s="27" t="s">
+    <row r="129" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P129" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q129" s="27"/>
-    </row>
-    <row r="130" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q129" s="26"/>
+    </row>
+    <row r="130" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J130" s="3" t="s">
         <v>2</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J131" s="5" t="s">
         <v>11</v>
       </c>
@@ -16463,12 +16463,12 @@
         <f t="shared" ref="R131:R132" si="13">1-(P131^2)-(Q131^2)</f>
         <v>0</v>
       </c>
-      <c r="S131" s="34">
+      <c r="S131" s="28">
         <f>SUMPRODUCT(R131:R132,M131:M132)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="132" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J132" s="5" t="s">
         <v>14</v>
       </c>
@@ -16503,15 +16503,15 @@
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="S132" s="34"/>
-    </row>
-    <row r="135" spans="10:19" x14ac:dyDescent="0.45">
-      <c r="P135" s="27" t="s">
+      <c r="S132" s="28"/>
+    </row>
+    <row r="135" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P135" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q135" s="27"/>
-    </row>
-    <row r="136" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q135" s="26"/>
+    </row>
+    <row r="136" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J136" s="3" t="s">
         <v>41</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="137" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J137" s="5" t="b">
         <v>1</v>
       </c>
@@ -16578,12 +16578,12 @@
         <f t="shared" ref="R137:R138" si="15">1-(P137^2)-(Q137^2)</f>
         <v>0</v>
       </c>
-      <c r="S137" s="26">
+      <c r="S137" s="27">
         <f>SUMPRODUCT(R137:R138,M137:M138)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="138" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J138" s="5" t="b">
         <v>0</v>
       </c>
@@ -16618,10 +16618,20 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S138" s="26"/>
+      <c r="S138" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="S131:S132"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="S137:S138"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="S124:S126"/>
     <mergeCell ref="S66:S68"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P12:Q12"/>
@@ -16634,16 +16644,6 @@
     <mergeCell ref="S34:S35"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="S131:S132"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="S137:S138"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="S124:S126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16658,59 +16658,59 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1"/>
-    <col min="8" max="8" width="2.3984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="1"/>
-    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.86328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" style="1" customWidth="1"/>
-    <col min="15" max="17" width="10.86328125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.73046875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="2.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1328125" style="1"/>
-    <col min="23" max="23" width="8.1328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.86328125" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="P8" s="27" t="s">
+    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>0.97095059445466858</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -16848,12 +16848,12 @@
       <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -16957,12 +16957,12 @@
         <f>-(P14*LOG(P14,2))-(Q14*LOG(Q14,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="29">
         <f>R10-SUMPRODUCT(R14:R15,M14:M15)</f>
         <v>4.6439344671015403E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -17016,9 +17016,9 @@
         <f>-(P15*LOG(P15,2))-(Q15*LOG(Q15,2))</f>
         <v>1</v>
       </c>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S15" s="31"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -17077,12 +17077,12 @@
       <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="5" t="s">
         <v>5</v>
       </c>
@@ -17168,12 +17168,12 @@
         <f>-(P20*LOG(P20,2))-(Q20*LOG(Q20,2))</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="29">
         <f>R10-SUMPRODUCT(R20:R21,M20:$M$21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -17215,9 +17215,9 @@
         <f>-(P21*LOG(P21,2))-(Q21*LOG(Q21,2))</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="S21" s="29"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="S21" s="31"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
@@ -17225,18 +17225,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P24" s="27" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q24" s="27"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q24" s="26"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J25" s="3" t="s">
         <v>1</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J26" s="5" t="s">
         <v>10</v>
       </c>
@@ -17304,12 +17304,12 @@
         <f>-(P26*LOG(P26,2))-(Q26*LOG(Q26,2))</f>
         <v>0.65002242164835411</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="29">
         <f>R10-SUMPRODUCT(R26:R27,M26:M27)</f>
         <v>0.25642589168200303</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J27" s="5" t="s">
         <v>13</v>
       </c>
@@ -17345,15 +17345,15 @@
         <f>-(P27*LOG(P27,2))-(Q27*LOG(Q27,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="S27" s="29"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P30" s="27" t="s">
+      <c r="S27" s="31"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q30" s="27"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q30" s="26"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J31" s="3" t="s">
         <v>2</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J32" s="5" t="s">
         <v>11</v>
       </c>
@@ -17421,7 +17421,7 @@
         <f>(Q32*LOG(Q32,2))</f>
         <v>0</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S32" s="32">
         <f>R10-SUMPRODUCT(R32:R33,M32:M33)</f>
         <v>0.41997309402197491</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J33" s="5" t="s">
         <v>14</v>
       </c>
@@ -17465,15 +17465,15 @@
         <f>-(P33*LOG(P33,2))-(Q33*LOG(Q33,2))</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="S33" s="32"/>
+      <c r="S33" s="34"/>
       <c r="U33" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S36" s="12"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -17492,12 +17492,12 @@
       <c r="F38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="27" t="s">
+      <c r="P38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q38" s="27"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q38" s="26"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>17</v>
       </c>
@@ -17601,12 +17601,12 @@
         <f>-(Q40*LOG(Q40,2))</f>
         <v>0</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="29">
         <f>R32-SUMPRODUCT(R40:R41,M40:M41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
@@ -17660,9 +17660,9 @@
         <f>-(Q41*LOG(Q41,2))</f>
         <v>0</v>
       </c>
-      <c r="S41" s="29"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S41" s="31"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>23</v>
       </c>
@@ -17682,13 +17682,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P43" s="27" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P43" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q43" s="27"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q43" s="26"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J44" s="3" t="s">
         <v>1</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J45" s="5" t="s">
         <v>10</v>
       </c>
@@ -17761,14 +17761,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P47" s="27" t="s">
+    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P47" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q47" s="27"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q47" s="26"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J49" s="5" t="b">
         <v>0</v>
       </c>
@@ -17836,12 +17836,12 @@
         <f>-(Q49*LOG(Q49,2))</f>
         <v>0</v>
       </c>
-      <c r="S49" s="28">
+      <c r="S49" s="29">
         <f>R32-SUMPRODUCT(R49:R50,M49:M50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J50" s="5" t="b">
         <v>1</v>
       </c>
@@ -17877,9 +17877,9 @@
         <f>-(Q50*LOG(Q50,2))</f>
         <v>0</v>
       </c>
-      <c r="S50" s="29"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S50" s="31"/>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -17887,7 +17887,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -17895,10 +17895,10 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="60" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S60" s="12"/>
     </row>
-    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -17917,12 +17917,12 @@
       <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="27" t="s">
+      <c r="P62" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q62" s="27"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q62" s="26"/>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>20</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>21</v>
       </c>
@@ -18026,12 +18026,12 @@
         <f>-(P64*LOG(P64,2))</f>
         <v>0</v>
       </c>
-      <c r="S64" s="28">
+      <c r="S64" s="29">
         <f>R33-SUMPRODUCT(R64:R65,M64:M65)</f>
         <v>0.25162916738782293</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>24</v>
       </c>
@@ -18085,9 +18085,9 @@
         <f>-(P65*LOG(P65,2))-(Q65*LOG(Q65,2))</f>
         <v>1</v>
       </c>
-      <c r="S65" s="29"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="S65" s="31"/>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>25</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>26</v>
       </c>
@@ -18126,12 +18126,12 @@
       <c r="F67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P67" s="27" t="s">
+      <c r="P67" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q67" s="27"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q67" s="26"/>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>28</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J69" s="5" t="s">
         <v>10</v>
       </c>
@@ -18217,12 +18217,12 @@
         <f>-(P69*LOG(P69,2))-(Q69*LOG(Q69,2))</f>
         <v>1</v>
       </c>
-      <c r="S69" s="28">
+      <c r="S69" s="29">
         <f>R33-SUMPRODUCT(R69:R70,M69:M70)</f>
         <v>4.4110417748401076E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J70" s="5" t="s">
         <v>13</v>
       </c>
@@ -18258,17 +18258,17 @@
         <f>-(P70*LOG(P70,2))-(Q70*LOG(Q70,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="S70" s="29"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P73" s="27" t="s">
+      <c r="S70" s="31"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q73" s="27"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Q73" s="26"/>
+    </row>
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J74" s="3" t="s">
         <v>3</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J75" s="5" t="b">
         <v>0</v>
       </c>
@@ -18336,12 +18336,12 @@
         <f>-(P75*LOG(P75,2))</f>
         <v>0</v>
       </c>
-      <c r="S75" s="30">
+      <c r="S75" s="32">
         <f>R33-SUMPRODUCT(R75:R76,M75:M76)</f>
         <v>0.45914791702724478</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J76" s="5" t="b">
         <v>1</v>
       </c>
@@ -18377,14 +18377,14 @@
         <f>-(P76*LOG(P76,2))-(Q76*LOG(Q76,2))</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="S76" s="32"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="S76" s="34"/>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S82" s="12"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
@@ -18403,12 +18403,12 @@
       <c r="F84" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P84" s="27" t="s">
+      <c r="P84" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q84" s="27"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q84" s="26"/>
+    </row>
+    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>26</v>
       </c>
@@ -18512,12 +18512,12 @@
         <f>-(P86*LOG(P86,2))</f>
         <v>0</v>
       </c>
-      <c r="S86" s="30">
+      <c r="S86" s="32">
         <f>R76-SUMPRODUCT(R86:R87,M86:M87)</f>
         <v>0.91829583405448956</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>28</v>
       </c>
@@ -18571,15 +18571,15 @@
         <f>-(Q87*LOG(Q87,2))</f>
         <v>0</v>
       </c>
-      <c r="S87" s="32"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="P89" s="27" t="s">
+      <c r="S87" s="34"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P89" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q89" s="27"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q89" s="26"/>
+    </row>
+    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J90" s="3" t="s">
         <v>1</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J91" s="5" t="s">
         <v>10</v>
       </c>
@@ -18647,12 +18647,12 @@
         <f>-(Q91*LOG(Q91,2))</f>
         <v>0</v>
       </c>
-      <c r="S91" s="28">
+      <c r="S91" s="29">
         <f>R76-SUMPRODUCT(R91:R92,M91:M92)</f>
         <v>0.25162916738782293</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J92" s="5" t="s">
         <v>13</v>
       </c>
@@ -18688,9 +18688,9 @@
         <f>-(P92*LOG(P92,2))-(Q92*LOG(Q92,2))</f>
         <v>1</v>
       </c>
-      <c r="S92" s="29"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S92" s="31"/>
+    </row>
+    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>15</v>
       </c>
@@ -18709,12 +18709,12 @@
       <c r="F97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P97" s="27" t="s">
+      <c r="P97" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q97" s="27"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q97" s="26"/>
+    </row>
+    <row r="98" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>20</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>24</v>
       </c>
@@ -18818,12 +18818,12 @@
         <f>-(P99*LOG(P99,2))</f>
         <v>0</v>
       </c>
-      <c r="S99" s="30">
+      <c r="S99" s="32">
         <f>R75-SUMPRODUCT(R99:R100,M99:M100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>25</v>
       </c>
@@ -18877,15 +18877,15 @@
         <f>-(P100*LOG(P100,2))</f>
         <v>0</v>
       </c>
-      <c r="S100" s="32"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="P102" s="27" t="s">
+      <c r="S100" s="34"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P102" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q102" s="27"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q102" s="26"/>
+    </row>
+    <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J103" s="3" t="s">
         <v>1</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J104" s="5" t="s">
         <v>10</v>
       </c>
@@ -18953,12 +18953,12 @@
         <f>-(P104*LOG(P104,2))</f>
         <v>0</v>
       </c>
-      <c r="S104" s="28">
+      <c r="S104" s="29">
         <f>R75-SUMPRODUCT(R104:R105,M104:M105)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J105" s="5" t="s">
         <v>13</v>
       </c>
@@ -18994,10 +18994,25 @@
         <f>-(P105*LOG(P105,2))</f>
         <v>0</v>
       </c>
-      <c r="S105" s="29"/>
+      <c r="S105" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="S49:S50"/>
     <mergeCell ref="S64:S65"/>
     <mergeCell ref="S99:S100"/>
     <mergeCell ref="P102:Q102"/>
@@ -19011,21 +19026,6 @@
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="S91:S92"/>
     <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S20:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
